--- a/DATA_goal/Junction_Flooding_316.xlsx
+++ b/DATA_goal/Junction_Flooding_316.xlsx
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44997.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.84</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.98</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.7</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.22</v>
+        <v>32.24</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.42</v>
+        <v>24.17</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.5</v>
+        <v>34.96</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.8</v>
+        <v>18.03</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.25</v>
+        <v>12.53</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.25</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.61</v>
+        <v>16.06</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.28</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>17</v>
+        <v>170.03</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.23</v>
+        <v>32.3</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.08</v>
+        <v>10.76</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.08</v>
+        <v>20.81</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.07</v>
+        <v>10.71</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.84</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.83</v>
+        <v>18.29</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.95</v>
+        <v>9.5</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.3</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.27</v>
+        <v>12.68</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.14</v>
+        <v>31.42</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.68</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.34</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44997.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.68</v>
+        <v>16.76</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.2</v>
+        <v>11.99</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.79</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.67</v>
+        <v>36.75</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.9</v>
+        <v>29.01</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.31</v>
+        <v>13.07</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.97</v>
+        <v>49.72</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.04</v>
+        <v>20.36</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.29</v>
+        <v>12.86</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.46</v>
+        <v>14.57</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.55</v>
+        <v>15.45</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.23</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.32</v>
+        <v>13.16</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.85</v>
+        <v>18.53</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.14</v>
+        <v>11.39</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.47</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.03</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>19.3</v>
+        <v>192.97</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.68</v>
+        <v>36.8</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.43</v>
+        <v>24.34</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.27</v>
+        <v>12.71</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.35</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.46</v>
+        <v>24.55</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.65</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.14</v>
+        <v>11.39</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.5</v>
+        <v>15.03</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.55</v>
+        <v>45.55</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.66</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.52</v>
+        <v>15.19</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44997.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.2</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.37</v>
+        <v>13.74</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.04</v>
+        <v>10.4</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.79</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.3</v>
+        <v>23.01</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.56</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.2</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.5</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.41</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.77</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.89</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.84</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.41</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>6.71</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.39</v>
+        <v>13.87</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.51</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.65</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.06</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.75</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.68</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.33</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.55</v>
+        <v>5.48</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.14</v>
+        <v>21.4</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44997.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.88</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.15</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.31</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.83</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.41</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.33</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.66</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.81</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.09</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.53</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>1.56</v>
+        <v>15.62</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.45</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.39</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.79</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.39</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.25</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.91</v>
+        <v>9.06</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_316.xlsx
+++ b/DATA_goal/Junction_Flooding_316.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44997.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.84</v>
+        <v>14.835</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>9.791</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.7</v>
+        <v>3.698</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>32.24</v>
+        <v>32.243</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>24.17</v>
+        <v>24.166</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>11.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>34.96</v>
+        <v>34.958</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>18.03</v>
+        <v>18.033</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>7.29</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.73</v>
+        <v>10.735</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.53</v>
+        <v>12.533</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>13.25</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.74</v>
+        <v>3.739</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.65</v>
+        <v>11.655</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>16.06</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.28</v>
+        <v>10.282</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.1</v>
+        <v>3.096</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>1.74</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>170.03</v>
+        <v>170.025</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>32.3</v>
+        <v>32.298</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.76</v>
+        <v>10.758</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>20.81</v>
+        <v>20.812</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.71</v>
+        <v>10.713</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.84</v>
+        <v>2.837</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>18.29</v>
+        <v>18.288</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.5</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>8.641999999999999</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.3</v>
+        <v>10.303</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.68</v>
+        <v>12.679</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.31</v>
+        <v>3.311</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>31.42</v>
+        <v>31.418</v>
       </c>
       <c r="AG2" s="4" t="n">
         <v>5.68</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.45</v>
+        <v>13.449</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44997.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>16.76</v>
+        <v>16.761</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11.99</v>
+        <v>11.991</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.79</v>
+        <v>1.789</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>36.75</v>
+        <v>36.746</v>
       </c>
       <c r="F3" s="4" t="n">
         <v>29.01</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>13.07</v>
+        <v>13.073</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>49.72</v>
+        <v>49.715</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>20.36</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.795</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>12.86</v>
+        <v>12.859</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>14.57</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>15.45</v>
+        <v>15.451</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>4.23</v>
+        <v>4.227</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>13.16</v>
+        <v>13.159</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>18.53</v>
+        <v>18.528</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>11.39</v>
+        <v>11.388</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.47</v>
+        <v>1.467</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.03</v>
+        <v>1.035</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>192.97</v>
+        <v>192.968</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>36.8</v>
+        <v>36.797</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>12.15</v>
+        <v>12.146</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>24.34</v>
+        <v>24.341</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>12.71</v>
+        <v>12.715</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.35</v>
+        <v>2.351</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>24.55</v>
+        <v>24.552</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.73</v>
+        <v>10.728</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.65</v>
+        <v>9.653</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>11.39</v>
+        <v>11.385</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>15.03</v>
+        <v>15.027</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>45.55</v>
+        <v>45.547</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>6.66</v>
+        <v>6.657</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>15.19</v>
+        <v>15.185</v>
       </c>
     </row>
     <row r="4">
@@ -863,73 +863,73 @@
         <v>44997.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.2</v>
+        <v>6.196</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.29</v>
+        <v>4.286</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.97</v>
+        <v>0.967</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>13.74</v>
+        <v>13.738</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>10.4</v>
+        <v>10.405</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.79</v>
+        <v>4.787</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>23.01</v>
+        <v>23.005</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.56</v>
+        <v>7.562</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.2</v>
+        <v>3.204</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.5</v>
+        <v>4.504</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.41</v>
+        <v>5.409</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.77</v>
+        <v>5.773</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.58</v>
+        <v>1.576</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.89</v>
+        <v>4.888</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.84</v>
+        <v>6.843</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.41</v>
+        <v>4.413</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.92</v>
+        <v>0.918</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.51</v>
+        <v>0.511</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>67.09999999999999</v>
+        <v>67.098</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>13.87</v>
+        <v>13.869</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.51</v>
+        <v>4.511</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>9.02</v>
+        <v>9.016999999999999</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.65</v>
+        <v>4.652</v>
       </c>
       <c r="Y4" s="4" t="n">
         <v>1.06</v>
@@ -938,28 +938,28 @@
         <v>10.75</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.98</v>
+        <v>3.985</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.68</v>
+        <v>3.678</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.33</v>
+        <v>4.327</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.48</v>
+        <v>5.479</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>21.4</v>
+        <v>21.396</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.38</v>
+        <v>2.381</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.64</v>
+        <v>5.642</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>1.74</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44997.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>18.51</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>28.67</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.210000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>118.53</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>15.29</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>14.15</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>25.73</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.539999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_316.xlsx
+++ b/DATA_goal/Junction_Flooding_316.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44997.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.88</v>
+        <v>1.876</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.15</v>
+        <v>1.151</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.613</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.31</v>
+        <v>4.308</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.83</v>
+        <v>2.829</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.41</v>
+        <v>1.406</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>9.539999999999999</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.33</v>
+        <v>2.327</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.944</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.12</v>
+        <v>1.119</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.66</v>
+        <v>1.656</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.81</v>
+        <v>1.806</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.5</v>
+        <v>0.497</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.5</v>
+        <v>1.504</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.09</v>
+        <v>2.089</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.53</v>
+        <v>1.533</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.66</v>
+        <v>0.662</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.29</v>
+        <v>0.287</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.62</v>
+        <v>15.617</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.45</v>
+        <v>4.455</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.39</v>
+        <v>1.388</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.79</v>
+        <v>2.792</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.39</v>
+        <v>1.385</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.51</v>
+        <v>0.514</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.25</v>
+        <v>4.254</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.23</v>
+        <v>1.226</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.22</v>
+        <v>1.224</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.43</v>
+        <v>1.427</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>1.58</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.553</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>9.06</v>
+        <v>9.061</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.64</v>
+        <v>0.643</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>1.74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44997.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>10.53</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>18.51</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>28.67</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>8.27</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>118.53</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>8.07</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>14.15</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>25.73</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>9.539999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_316.xlsx
+++ b/DATA_goal/Junction_Flooding_316.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44997.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.876</v>
+        <v>1.88</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.151</v>
+        <v>1.15</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.613</v>
+        <v>0.61</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.308</v>
+        <v>4.31</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.829</v>
+        <v>2.83</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.406</v>
+        <v>1.41</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>9.539999999999999</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.327</v>
+        <v>2.33</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.944</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.119</v>
+        <v>1.12</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.656</v>
+        <v>1.66</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.806</v>
+        <v>1.81</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.497</v>
+        <v>0.5</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.504</v>
+        <v>1.5</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.089</v>
+        <v>2.09</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.533</v>
+        <v>1.53</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.662</v>
+        <v>0.66</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.287</v>
+        <v>0.29</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.617</v>
+        <v>15.62</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.455</v>
+        <v>4.45</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.388</v>
+        <v>1.39</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.792</v>
+        <v>2.79</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.385</v>
+        <v>1.39</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.514</v>
+        <v>0.51</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.254</v>
+        <v>4.25</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.226</v>
+        <v>1.23</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.224</v>
+        <v>1.22</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.427</v>
+        <v>1.43</v>
       </c>
       <c r="AD5" s="4" t="n">
         <v>1.58</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>9.061</v>
+        <v>9.06</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.643</v>
+        <v>0.64</v>
       </c>
       <c r="AH5" s="4" t="n">
         <v>1.74</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44997.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>10.53</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>18.51</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>28.67</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>9.210000000000001</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>118.53</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>7.63</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>15.29</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>14.15</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>25.73</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>9.539999999999999</v>
       </c>
     </row>
   </sheetData>
